--- a/LeafBot/data/TC002.xlsx
+++ b/LeafBot/data/TC002.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestLeaf\download\framework\framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu Sudhakar\git\repository\LeafBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8810D6EA-7577-4BEF-B45E-072EB0DE7726}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9BBC76-5909-4407-AB14-98CD81B09AC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>DemoSalesManager</t>
+  </si>
+  <si>
+    <t>crmsfa</t>
   </si>
 </sst>
 </file>
@@ -485,71 +497,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
